--- a/src/main/resources/templates/ExcavateTemplate.xlsx
+++ b/src/main/resources/templates/ExcavateTemplate.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\workSpace\springCloud20200115\springBootDemo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60853F7C-D699-4D69-AED2-E0110CEB071C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AC9DEB-8E4E-4D3B-B83C-BBB20048280A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>t.amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,19 +47,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检索信息：行业（{{QUERY_DATE_MAIN_BUSINESS}})、加分项（{{QUERY_DATE_NICHE_BUSINESS}})、 属性（{{QUERY_DATE_ATTR}})、关键字（{{QUERY_DATE_KEYWORD}})</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不含加分项</t>
+    <t>流通(亿)</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>现价</t>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板块-名称(代码)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热点行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势现状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小盘（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大票（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业（{{QUERY_DATE_MAIN_BUSINESS}})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加分项（{{QUERY_DATE_NICHE_BUSINESS}})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性（{{QUERY_DATE_ATTR}})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字（{{QUERY_DATE_KEYWORD}})</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +164,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -124,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -135,6 +212,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,72 +531,566 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B0D44E-27A3-4E8C-A2A3-F555E0B50BDD}">
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="28.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="29.875" style="1"/>
+    <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" customWidth="1"/>
+    <col min="6" max="6" width="57.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="62" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="H2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B3:C3">
+  <conditionalFormatting sqref="B4:C4">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"大环境"</formula>
     </cfRule>
